--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_06-15_a.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_06-15_a.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Her Arts… even have a persistent effect?!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Her Arts... even have a persistent effect?!
 </t>
   </si>
   <si>
